--- a/biology/Zoologie/Asteronychidae/Asteronychidae.xlsx
+++ b/biology/Zoologie/Asteronychidae/Asteronychidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asteronychidae sont une famille d'ophiures (échinodermes) de l'ordre des Euryalida.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir attribué cette famille à Addison E. Verrill en 1899, le WoRMS considère désormais que son véritable auteur est Axel Ljungman (d) en 1867.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des ophiures planctonivores pourvues de très longs bras permettant de filtrer l'eau de mer en piégeant le plancton, un peu à la manière de leurs cousines les comatules. Elles vivent tassées en boule pendant la journée, et étendent leurs bras la nuit tombée pour se nourrir. Elles vivent le plus souvent dans les eaux froides ou abyssales.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (6 décembre 2020)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (6 décembre 2020) :
 genre Asteronyx Müller &amp; Troschel, 1842 -- 6 espèces actuelles
 genre Astrodia Verrill, 1899 -- 5 espèces
 genre Astronebris Downey, 1967 -- 1 espèce
